--- a/medicine/Enfance/Charles_Dutertre/Charles_Dutertre.xlsx
+++ b/medicine/Enfance/Charles_Dutertre/Charles_Dutertre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Dutertre, né le 11 mars 1972 à Rennes[1], est un artiste français, auteur et illustrateur de littérature jeunesse. Il vit près de Nantes[2] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Dutertre, né le 11 mars 1972 à Rennes, est un artiste français, auteur et illustrateur de littérature jeunesse. Il vit près de Nantes .
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Dutertre a étudié à l'École supérieure d'arts et médias de Caen - Cherbourg et à l'École régionale des beaux-arts de Rennes[1]. Il travaille pour la presse, dont Ouest-France[2], et pour certains titres de Bayard Presse, tels Astrapi, J’aime lire ou Images doc[1].  
-Depuis le début des années 2000, il illustre des ouvrages jeunesse. Il a réalisé plusieurs dizaines d'albums, écrits par divers auteurs jeunesse, dont Alex Cousseau, Thierry Lenain ou Michel Piquemal, et illustre également des documentaires jeunesse. Il a réalisés quelques albums dont il est auteur, principalement des imagiers[2]. Il est publié chez divers éditeurs, les éditions du Rouergue ou les éditions Sarbacane.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Dutertre a étudié à l'École supérieure d'arts et médias de Caen - Cherbourg et à l'École régionale des beaux-arts de Rennes. Il travaille pour la presse, dont Ouest-France, et pour certains titres de Bayard Presse, tels Astrapi, J’aime lire ou Images doc.  
+Depuis le début des années 2000, il illustre des ouvrages jeunesse. Il a réalisé plusieurs dizaines d'albums, écrits par divers auteurs jeunesse, dont Alex Cousseau, Thierry Lenain ou Michel Piquemal, et illustre également des documentaires jeunesse. Il a réalisés quelques albums dont il est auteur, principalement des imagiers. Il est publié chez divers éditeurs, les éditions du Rouergue ou les éditions Sarbacane.
 Il a participé à plusieurs numéros de la revue de bande dessinée, Patate douce, en tant qu'auteur-illustrateur, entre 2002 et 2006.
-Il illustre plusieurs albums jeunesse écrits par Vincent Cuvellier, dont en 2004 Tu parles, Charles !, qui obtient plusieurs prix jeunesse, ou en 2006, La première fois que je suis née. Ce dernier est adapté en concert en 2010 par l'orchestre national d'Île-de-France[3]. Un album-CD sera publié l'année suivante, récompensé par le Grand Prix de l'Académie Charles-Cros en 2012[3]. 
-L'un des artistes illustrateurs qu'il admire est Raymond Savignac[2].
-En 2018, il reçoit le prestigieux prix international, le Prix BolognaRagazzi[4], dans la catégorie Fiction, à la Foire du livre de jeunesse de Bologne pour L'Oiseau blanc qu'il a illustré, sur un texte de Alex Cousseau. L'album est inspiré de la vie de Charles Nungesser qui, en 1927, a tenté la traversée entre Paris et New York sans escale[5].
-Il vit près de Nantes, et a trois enfants[2].
+Il illustre plusieurs albums jeunesse écrits par Vincent Cuvellier, dont en 2004 Tu parles, Charles !, qui obtient plusieurs prix jeunesse, ou en 2006, La première fois que je suis née. Ce dernier est adapté en concert en 2010 par l'orchestre national d'Île-de-France. Un album-CD sera publié l'année suivante, récompensé par le Grand Prix de l'Académie Charles-Cros en 2012. 
+L'un des artistes illustrateurs qu'il admire est Raymond Savignac.
+En 2018, il reçoit le prestigieux prix international, le Prix BolognaRagazzi, dans la catégorie Fiction, à la Foire du livre de jeunesse de Bologne pour L'Oiseau blanc qu'il a illustré, sur un texte de Alex Cousseau. L'album est inspiré de la vie de Charles Nungesser qui, en 1927, a tenté la traversée entre Paris et New York sans escale.
+Il vit près de Nantes, et a trois enfants.
 </t>
         </is>
       </c>
@@ -550,10 +564,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Auteur et illustrateur
-Pirouette, le Potager moderne, 2004
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pirouette, le Potager moderne, 2004
 L'hôtel des touristes, Delcourt, 2009
- Mon imagier de Bretagne : d'Artichaut à Zef[2], Éditions Ouest-France, 2016
+ Mon imagier de Bretagne : d'Artichaut à Zef, Éditions Ouest-France, 2016
  Mon imagier de Lyon : d'andouillette au zoo de la Tête d'Or, Éditions Ouest-France, 2017
  Mon imagier de Paris : d'Amour à Zoo de Vincennes, Éditions Ouest-France, 2017
  Mon imagier du Moyen âge, Éditions Ouest-France, 2017
@@ -561,9 +580,43 @@
 Collectifs
 Participation à la revue collective Patate douce, éditions Le Potager moderne :
 tome 1 (2002), tome 2 (2002), tome 3 (2003), tome 4 (2003), tome 5 (2004), tome 7 (2005), tome 8 (2006)
-Participation à la bande dessinée muette Comix 2000, éd. L'Association, 1999
-Illustrateur
- Le mariage, c'est pour les nuls !, texte de Thierry Lenain, Nathan, 2002
+Participation à la bande dessinée muette Comix 2000, éd. L'Association, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charles_Dutertre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Dutertre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Le mariage, c'est pour les nuls !, texte de Thierry Lenain, Nathan, 2002
  Tu parles, Charles !, texte de Vincent Cuvellier, éditions du Rouergue, 2004
  Le grand livre des codes secrets : tout pour inventer de mystérieux messages, texte Michel Piquemal et Daniel Royo, A. Michel jeunesse, 2004
  Charlotte, la roulotte !, texte de Vincent Cuvellier, Éd. d'Orbestier, 2005
@@ -574,27 +627,27 @@
  La vie d'une étoile, texte d'Alain Bouquet, Éd. le Pommier, 2006
  Comment ça pousse ? , texte d'Anne-Sophie Baumann, Tourbillon, 2007
  L'archiduc de Tralala et autres histoires, texte de Vincent Cuvellier, Bayard jeunesse, 2008
-L'Enfant qui grandissait[6], texte de Vincent Cuvellier, Gallimard jeunesse-Giboulées, 2008
+L'Enfant qui grandissait, texte de Vincent Cuvellier, Gallimard jeunesse-Giboulées, 2008
 D'où vient le poisson pané ? : poissons, coquillages &amp; crustacés, texte d'Anne-Sophie Baumann, Tourbillon, 2008
 Les dessous des baleines, texte de Catherine Vadon, illustrations de Vincent Boyer et Charles Dutertre, Tourbillon, 2008
 Ventricule, texte de Marc Lizano, dessins de Phicil, avec la participation de Ulf K. et Charles Dutertre, Carabas, 2009.
 Atmosphère : quel effet de serre !, texte de Valérie Masson-Delmotte et Marc Delmotte, Éd. le Pommier, 2009
- L'Histoire de Clara[7], texte de Vincent Cuvellier, Gallimard jeunesse-Giboulées, 2009
+ L'Histoire de Clara, texte de Vincent Cuvellier, Gallimard jeunesse-Giboulées, 2009
 Le roi qui n'a rien, texte de Alex Cousseau, Gallimard jeunesse-Giboulées, 2010
  Frères des grandes plaines, texte de Michel Piquemal ; narrateur, Hubert Drac, Bayard jeunesse, 2010 - album-CD
  Les dessous des dinosaures, texte de Cécile Colin-Fromont et Luc Vivès, illustrations de Vincent Boyer, Charles Dutertre et Luc Vivès, les Éd. du Muséum, 2010
 Que trouve-t-on sous la terre ?, texte d'Anne-Sophie Baumann, sous la direction scientifique de François Prognon, Tourbillon, 2010
 La marmite pleine d'or, texte de Jean-Louis Le Craver, Didier jeunesse, 2011
 Les frères Moustaches, texte de Alex Cousseau, Rouergue, 2013
-Super chanteuse et petit pirate[8], texte de Julie Bonnie, Rouergue, 2013
-Lumières : l'"Encyclopédie" revisitée, 1713-2013[9], textes de Franck Prévot, illustrations de onze illustrateurs dont Martin Jarrie, Régis Lejonc, Charles Dutertre, Éd. l'Édune, 2013 - Publié pour le tricentenaire de la naissance de Denis Diderot -  Fait l'objet d'une exposition au même nom.
+Super chanteuse et petit pirate, texte de Julie Bonnie, Rouergue, 2013
+Lumières : l'"Encyclopédie" revisitée, 1713-2013, textes de Franck Prévot, illustrations de onze illustrateurs dont Martin Jarrie, Régis Lejonc, Charles Dutertre, Éd. l'Édune, 2013 - Publié pour le tricentenaire de la naissance de Denis Diderot -  Fait l'objet d'une exposition au même nom.
 Série  Louison Mignon, texte de Alex Cousseau, Rouergue
  Louison Mignon cherche son chiot, 2015
  Louison Mignon contre le bandit aux feuilles mortes, 2015
  Louison Mignon et le cochon caché, 2016
  Louison Mignon fait des confitures avec le shérif, 2016
  Le chat qui est chien, texte de Alex Cousseau, Rouergue, 2016
-L'Oiseau blanc[5], texte de Alex Cousseau, éditions du Rouergue, 2017
+L'Oiseau blanc, texte de Alex Cousseau, éditions du Rouergue, 2017
 Brelin de la lune, texte de Kochka, Oskar éditeur, 2017
 La patrouille du rire, texte de Roland Fuentès, Nathan, 2018
 Papa siffle et papa souffle, texte de Michèle Moreau, Didier Jeunesse, 2018
@@ -602,7 +655,7 @@
 Série Mon chien, texte de Myren Duval, Rouergue
 Mon chien, Dieu et les Pokétrucs, 2018
 Mon chien, la liberté et les glaces à la mangue, 2023
-Mon chien, mamie et les graines de grenouilles[10], 2024
+Mon chien, mamie et les graines de grenouilles, 2024
 Jeune loup, vieux renard, texte de Richard Marnier, le Vengeur masqué, 2018
 Écoute Papa qui parle avec les animaux, texte de Michèle Moreau, Didier jeunesse, 2018
 Écoute Papa qui jardine et qui joue, texte de Michèle Moreau, Didier jeunesse, 2018
@@ -616,16 +669,16 @@
 J'aime pas ma mamie, texte de Isabelle Damotte, Magnard jeunesse, 2021
 Je veux des pouvoirs magiques !, texte de Patricia Berreby, Casterman, 2021
 100 idées géniales pour chasser la routine en famille, texte de Philippe Brasseur, Casterman, 2021
-Journal d'un chien de campagne[11], texte de Olivier Ka, Rouergue, 2021
+Journal d'un chien de campagne, texte de Olivier Ka, Rouergue, 2021
 Le petit Bidibi, texte de Serge Valentin, Didier jeunesse, 2021
 Souricette veut un amoureux, texte et voix de François Vincent, Didier jeunesse, 2021 (livre-CD)
 Tarzan pou explorateur, texte de Caroline Roque, Auzou, 2021
-Collection C’est pas grammatique !, texte de Fabien Vehlmann, Six Citrons Acides[12]
+Collection C’est pas grammatique !, texte de Fabien Vehlmann, Six Citrons Acides
 Le Vélo à ma sœur, 2021
 Mes quatre z'amis, 2022
 Je vais au Coiffeur, 2023
 Un ami chez Crapoto, texte de Stéphane Servant, l'Élan vert, 2022
-Nez rouge et dent cassée[13], texte Olivier Ka, Rouergue, 2022
+Nez rouge et dent cassée, texte Olivier Ka, Rouergue, 2022
 Harry Cover, texte Claire Renaud, Sarbacane, 2022
 Série Bonaventure et compagnie, texte de Alex Cousseau, collection Dacodac, Rouergue
 En concert sous les étoiles !, 2023
@@ -634,49 +687,7 @@
 Un mammouth pour les vacances texte de Julien Perrin, narratrice Cécilia Anseeuw, Bayard jeunesse, 2023 - Livre-CD
 Ma maman seulement , texte de Juliette Vallery, Mango jeunesse, 2023
 Je le note, texte de Ella Coalman, les Albums Casterman, 2023
-Il était peut-être une fois, texte de Anne-Gaëlle Balpe, l'École des loisirs, 2023
-Spectacles musicaux
-La première fois que je suis née, texte de Vincent Cuvellier, est adapté en concert par Marc-Olivier Dupin et l’orchestre national d'Île-de-France en 2010. L'année suivante est édité un album-CD.
-Album-CD
-La première fois que je suis née, texte de Vincent Cuvellier, musique orchestre national d'Île-de-France, Gallimard, 2011
-Récompensé par le Grand Prix de l'Académie Charles-Cros en 2012[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Charles_Dutertre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charles_Dutertre</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Prix et distinctions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2004 : Prix Tam-Tam[14]  pour  Tu parles, Charles !, texte de Vincent Cuvellier
-2006 : Prix des Incorruptibles[15] pour  Tu parles, Charles !, texte de Vincent Cuvellier
-2006 :  Prix Bernard Versele (4 chouettes) pour  Tu parles, Charles !, texte de Vincent Cuvellier
-2009 : Prix des Incorruptibles[15] pour La première fois que je suis née, texte de Vincent Cuvellier
-2012 : Grand Prix de l'Académie Charles-Cros[3] pour l'éditon musicale (album-CD) de La première fois que je suis née, texte de Vincent Cuvellier, musique orchestre national d'Île-de-France
-2018 :  Prix BolognaRagazzi catégorie Fiction[4], Foire du livre de jeunesse de Bologne  pour L'Oiseau blanc, texte de Alex Cousseau
-2023 : Prix Tatoulu[16] pour Nez rouge et dent cassée , texte de Olivier Ka</t>
+Il était peut-être une fois, texte de Anne-Gaëlle Balpe, l'École des loisirs, 2023</t>
         </is>
       </c>
     </row>
@@ -701,10 +712,90 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Quelques œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spectacles musicaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première fois que je suis née, texte de Vincent Cuvellier, est adapté en concert par Marc-Olivier Dupin et l’orchestre national d'Île-de-France en 2010. L'année suivante est édité un album-CD.
+Album-CD
+La première fois que je suis née, texte de Vincent Cuvellier, musique orchestre national d'Île-de-France, Gallimard, 2011
+Récompensé par le Grand Prix de l'Académie Charles-Cros en 2012.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charles_Dutertre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Dutertre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2004 : Prix Tam-Tam  pour  Tu parles, Charles !, texte de Vincent Cuvellier
+2006 : Prix des Incorruptibles pour  Tu parles, Charles !, texte de Vincent Cuvellier
+2006 :  Prix Bernard Versele (4 chouettes) pour  Tu parles, Charles !, texte de Vincent Cuvellier
+2009 : Prix des Incorruptibles pour La première fois que je suis née, texte de Vincent Cuvellier
+2012 : Grand Prix de l'Académie Charles-Cros pour l'éditon musicale (album-CD) de La première fois que je suis née, texte de Vincent Cuvellier, musique orchestre national d'Île-de-France
+2018 :  Prix BolognaRagazzi catégorie Fiction, Foire du livre de jeunesse de Bologne  pour L'Oiseau blanc, texte de Alex Cousseau
+2023 : Prix Tatoulu pour Nez rouge et dent cassée , texte de Olivier Ka</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charles_Dutertre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Dutertre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Quelques expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2005 : « Dragons », Château de Malbrouck, Manderen (Moselle) ; publication de l'ouvrage, à la suite de l'exposition : Les dessous du dragon, texte de Patrick Absalon, illustrations de Vincent Boyer, Charles Dutertre et Julien Norwood, les Éd. du Museum : Tourbillon, 2005
 2013 : « Lumières : l'"Encyclopédie" revisitée, 1713-2013 », d'après l'ouvrage éponyme, textes de Franck Prévot, illustrations de onze illustrateurs dont Martin Jarrie, Régis Lejonc, Charles Dutertre, Éd. l'Édune, 2013 (Publié pour le tricentenaire de la naissance de Denis Diderot), Galerie Michel Lagarde.</t>
